--- a/数据集属性.xlsx
+++ b/数据集属性.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\大四任务一\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F91C4CD-417A-4D09-829F-A299F216F486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5693C5DB-2FC4-43BD-8B1D-DBCD399997D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>类别              数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -311,13 +311,54 @@
   <si>
     <t>d)      Unknown</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pedestrian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>people</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bicycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>van</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tricycle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awning-tricycle</t>
+  </si>
+  <si>
+    <t>bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,8 +373,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +391,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,15 +428,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -386,7 +443,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -671,19 +741,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="92" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.9140625" customWidth="1"/>
     <col min="2" max="2" width="11.4140625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.4140625" customWidth="1"/>
     <col min="8" max="8" width="20.25" customWidth="1"/>
     <col min="9" max="9" width="14.4140625" customWidth="1"/>
     <col min="14" max="14" width="10.75" customWidth="1"/>
     <col min="16" max="16" width="13.58203125" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" style="10"/>
     <col min="20" max="20" width="35.9140625" customWidth="1"/>
     <col min="21" max="21" width="10.75" customWidth="1"/>
     <col min="22" max="22" width="14.08203125" customWidth="1"/>
@@ -698,34 +770,34 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="7">
         <v>45371</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -740,13 +812,13 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>17</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -776,14 +848,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I2" t="s">
@@ -795,10 +867,16 @@
       <c r="L2" t="s">
         <v>25</v>
       </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="V2" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -832,7 +910,9 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+      <c r="R3" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
@@ -876,7 +956,9 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="R4" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -915,7 +997,9 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="R5" s="11" t="s">
+        <v>89</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -953,7 +1037,9 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="R6" s="11" t="s">
+        <v>90</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -991,7 +1077,9 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
+      <c r="R7" s="11" t="s">
+        <v>91</v>
+      </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -1029,7 +1117,9 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+      <c r="R8" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -1067,7 +1157,9 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
+      <c r="R9" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -1105,7 +1197,9 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="R10" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -1143,7 +1237,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -1181,7 +1275,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -1217,7 +1311,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -1253,7 +1347,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -1286,7 +1380,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -1323,7 +1417,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -1354,7 +1448,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -1386,7 +1480,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="R18" s="11"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -1418,7 +1512,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="R19" s="11"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -1450,7 +1544,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="R20" s="11"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -1482,7 +1576,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="R21" s="11"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -1512,7 +1606,7 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="R22" s="11"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -1542,7 +1636,6 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="5"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -1572,7 +1665,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="11"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -1604,7 +1697,7 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="R25" s="11"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -1634,7 +1727,7 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
+      <c r="R26" s="11"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -1677,55 +1770,40 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/数据集属性.xlsx
+++ b/数据集属性.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\大四任务一\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\2024.10-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5693C5DB-2FC4-43BD-8B1D-DBCD399997D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747847AB-6851-4A08-89BD-17DA2BFE7DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="2805" windowWidth="26880" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="156">
   <si>
     <t>类别              数据集</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,9 +108,6 @@
     <t>airplane</t>
   </si>
   <si>
-    <t xml:space="preserve"> harbor</t>
-  </si>
-  <si>
     <t>vehicle</t>
   </si>
   <si>
@@ -352,13 +349,213 @@
   </si>
   <si>
     <t>motor</t>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aircraft carrier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warcraft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>军舰</t>
+  </si>
+  <si>
+    <t>商船</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尼米兹级航母</t>
+  </si>
+  <si>
+    <t>企业级航母</t>
+  </si>
+  <si>
+    <t>阿利伯克级驱逐舰</t>
+  </si>
+  <si>
+    <t>惠德贝岛级船坞登陆舰</t>
+  </si>
+  <si>
+    <t>佩里级护卫舰</t>
+  </si>
+  <si>
+    <t>圣安东尼奥级两栖船坞运输舰</t>
+  </si>
+  <si>
+    <t>提康德罗加级巡洋舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小鹰级航母</t>
+  </si>
+  <si>
+    <t>俄罗斯库兹涅佐夫号航母</t>
+  </si>
+  <si>
+    <t>阿武隈级护卫舰</t>
+  </si>
+  <si>
+    <t>奥斯汀级两栖船坞运输舰</t>
+  </si>
+  <si>
+    <t>塔拉瓦级通用两栖攻击舰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝岭级指挥舰</t>
+  </si>
+  <si>
+    <t>集装箱货船</t>
+  </si>
+  <si>
+    <t>尾部OX头部圆指挥舰</t>
+  </si>
+  <si>
+    <t>运输汽车船</t>
+  </si>
+  <si>
+    <t>气垫船</t>
+  </si>
+  <si>
+    <t>游艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货船</t>
+  </si>
+  <si>
+    <t>游轮</t>
+  </si>
+  <si>
+    <t>潜艇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琵琶形军舰</t>
+  </si>
+  <si>
+    <t>医疗船</t>
+  </si>
+  <si>
+    <t>福特级航空母舰</t>
+  </si>
+  <si>
+    <t>中途号航母</t>
+  </si>
+  <si>
+    <t>无敌级航空母舰</t>
+  </si>
+  <si>
+    <t>Invincible-class aircraft carrier</t>
+  </si>
+  <si>
+    <t>Midway-class aircraft carrier</t>
+  </si>
+  <si>
+    <t>Ford-class aircraft carriers</t>
+  </si>
+  <si>
+    <t>Car carrier</t>
+  </si>
+  <si>
+    <t>Medical ship</t>
+  </si>
+  <si>
+    <t>lute</t>
+  </si>
+  <si>
+    <t>merchant ship</t>
+  </si>
+  <si>
+    <t>Nimitz class aircraft carrier</t>
+  </si>
+  <si>
+    <t>Enterprise class aircraft carrier</t>
+  </si>
+  <si>
+    <t>Arleigh Burke class destroyers</t>
+  </si>
+  <si>
+    <t>WhidbeyIsland class landing craft</t>
+  </si>
+  <si>
+    <t>Perry class frigate</t>
+  </si>
+  <si>
+    <t>Sanantonio class amphibious transport dock</t>
+  </si>
+  <si>
+    <t>Ticonderoga class cruiser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kitty Hawk class aircraft carrier</t>
+  </si>
+  <si>
+    <t>Admiral Kuznetsov aircraft carrier</t>
+  </si>
+  <si>
+    <t>Abukuma-class destroyer escort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austen class amphibious transport dock</t>
+  </si>
+  <si>
+    <t>Tarawa-class amphibious assault ship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USS Blue Ridge (LCC-19)</t>
+  </si>
+  <si>
+    <t>Container ship</t>
+  </si>
+  <si>
+    <t>OXo|--)</t>
+  </si>
+  <si>
+    <t>Car carrier([]==[])</t>
+  </si>
+  <si>
+    <t>Hovercraft</t>
+  </si>
+  <si>
+    <t>yacht</t>
+  </si>
+  <si>
+    <t>Container ship(_|.--.--|_]=</t>
+  </si>
+  <si>
+    <t>Cruise ship</t>
+  </si>
+  <si>
+    <t>submarine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +575,13 @@
       <color theme="4" tint="-0.249977111117893"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -428,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -458,6 +662,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,31 +950,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="92" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.9140625" customWidth="1"/>
-    <col min="2" max="2" width="11.4140625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.4140625" customWidth="1"/>
+    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="9" width="14.4140625" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
     <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="13.58203125" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" style="10"/>
-    <col min="20" max="20" width="35.9140625" customWidth="1"/>
+    <col min="16" max="16" width="13.625" customWidth="1"/>
+    <col min="18" max="18" width="8.625" style="10"/>
+    <col min="20" max="20" width="35.875" customWidth="1"/>
     <col min="21" max="21" width="10.75" customWidth="1"/>
-    <col min="22" max="22" width="14.08203125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" customWidth="1"/>
     <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="25" max="25" width="11" customWidth="1"/>
+    <col min="25" max="25" width="11.25" customWidth="1"/>
+    <col min="26" max="26" width="7.5" customWidth="1"/>
+    <col min="27" max="27" width="10.5" customWidth="1"/>
+    <col min="28" max="28" width="6.125" customWidth="1"/>
+    <col min="29" max="29" width="15" customWidth="1"/>
+    <col min="30" max="30" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,74 +1052,97 @@
       <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="Y2">
+        <v>100000001</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -911,45 +1150,62 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>100000002</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -957,39 +1213,57 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" t="s">
-        <v>47</v>
+      <c r="V4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4">
+        <v>100000003</v>
       </c>
       <c r="Z4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -998,22 +1272,39 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>100000004</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1024,10 +1315,10 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1038,22 +1329,39 @@
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>100000005</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1064,10 +1372,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1078,22 +1386,39 @@
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>100000006</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7">
+        <v>6</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1104,10 +1429,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1118,22 +1443,39 @@
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-      <c r="V8" s="2" t="s">
-        <v>41</v>
+      <c r="V8" t="s">
+        <v>38</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>100000007</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1144,10 +1486,10 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1158,22 +1500,39 @@
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>100000008</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9">
+        <v>8</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1184,10 +1543,10 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1198,22 +1557,39 @@
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y10">
+        <v>100000009</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC10" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1224,10 +1600,10 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1241,17 +1617,31 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
-      <c r="V11" t="s">
-        <v>27</v>
-      </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y11">
+        <v>100000010</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA11">
+        <v>10</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC11" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD11" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1262,10 +1652,10 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1282,12 +1672,29 @@
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y12">
+        <v>100000011</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA12">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1298,10 +1705,10 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1318,12 +1725,29 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y13">
+        <v>100000012</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1334,10 +1758,10 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1354,9 +1778,26 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>100000013</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14">
+        <v>13</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC14" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD14" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1367,10 +1808,10 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1387,13 +1828,30 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>100000014</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA15">
+        <v>14</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1404,10 +1862,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1424,10 +1882,27 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <v>100000015</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA16">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE16" s="2"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1438,7 +1913,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1455,10 +1930,27 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y17">
+        <v>100000016</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA17">
+        <v>16</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD17" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1469,7 +1961,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1487,10 +1979,27 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y18">
+        <v>100000017</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC18" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD18" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE18" s="2"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1501,7 +2010,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1519,10 +2028,27 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y19">
+        <v>100000018</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA19">
+        <v>18</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC19" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD19" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE19" s="2"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1533,7 +2059,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1551,10 +2077,27 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y20">
+        <v>100000019</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA20">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC20" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD20" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE20" s="2"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1565,7 +2108,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1583,10 +2126,27 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y21">
+        <v>100000020</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA21">
+        <v>20</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC21" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE21" s="2"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1613,10 +2173,23 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y22">
+        <v>100000021</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA22">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="2"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1642,10 +2215,27 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y23">
+        <v>100000022</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA23">
+        <v>22</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC23" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD23" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE23" s="2"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1672,12 +2262,25 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
+      <c r="Y24">
+        <v>100000023</v>
+      </c>
       <c r="Z24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="AA24">
+        <v>23</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1704,10 +2307,27 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y25">
+        <v>100000024</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA25">
+        <v>24</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC25" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD25" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE25" s="2"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1734,79 +2354,247 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y26">
+        <v>100000025</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA26">
+        <v>25</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC26" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD26" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE26" s="2"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y27">
+        <v>100000026</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA27">
+        <v>26</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD27" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y28">
+        <v>100000027</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA28">
+        <v>27</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC28" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD28" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y29">
+        <v>100000028</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA29">
+        <v>28</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC29" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD29" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y30">
+        <v>100000029</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA30">
+        <v>29</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC30" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD30" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="Y31">
+        <v>100000030</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA31">
+        <v>30</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC31" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD31" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="Z32" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Y32">
+        <v>100000031</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA32">
+        <v>31</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD32" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="V33" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y33">
+        <v>100000032</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA33">
+        <v>32</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC33" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD33" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Y34">
+        <v>100000033</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA34">
+        <v>33</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC34" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD34" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Y1:AD1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>